--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,39 +50,96 @@
     <t>长沙软件测试交流群</t>
   </si>
   <si>
-    <t>{"0":"242", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>兄弟汇</t>
+  </si>
+  <si>
+    <t>路遇行人</t>
+  </si>
+  <si>
+    <t>Microsoft问题交流</t>
+  </si>
+  <si>
+    <t>微博热门实时推广精选</t>
+  </si>
+  <si>
+    <t>输了你赢了全世界又如</t>
+  </si>
+  <si>
+    <t>湖南化妆师-新年快乐</t>
+  </si>
+  <si>
+    <t>新娘化妆师交流(一)</t>
+  </si>
+  <si>
+    <t>杭州化妆师交流群</t>
+  </si>
+  <si>
+    <t>山西化妆师交流1群</t>
+  </si>
+  <si>
+    <t>{"0":"28", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0":"270", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>{"0":"40", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0":"500", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>{"0":"8", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0":"247", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>{"0":"11", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0":"295", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>{"0":"13", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0":"310", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>{"0":"30", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0":"175", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <t>{"0": "19", "1": "14", "2": "20", "3": "8", "4": "5", "5": "10", "6": "10", "7": "27", "8": "0", "9": "28", "10": "7", "11": "27", "12": "21", "13": "11", "14": "3", "15": "2", "16": "20", "17": "6", "18": "24", "19": "11", "20": "1", "21": "3", "22": "15", "23": "29", "24": "33", "25": "29", "26": "115"}</t>
+  </si>
+  <si>
+    <t>{"0": "11", "1": "5", "2": "9", "3": "8", "4": "2", "5": "3", "6": "7", "7": "9", "8": "0", "9": "10", "10": "1", "11": "14", "12": "6", "13": "4", "14": "1", "15": "1", "16": "6", "17": "4", "18": "8", "19": "6", "20": "0", "21": "2", "22": "11", "23": "12", "24": "11", "25": "0", "26": "36"}</t>
+  </si>
+  <si>
+    <t>{"0": "17", "1": "13", "2": "15", "3": "15", "4": "1", "5": "11", "6": "11", "7": "60", "8": "3", "9": "23", "10": "9", "11": "19", "12": "18", "13": "18", "14": "3", "15": "5", "16": "17", "17": "5", "18": "22", "19": "14", "20": "1", "21": "1", "22": "27", "23": "29", "24": "41", "25": "21", "26": "78"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "19", "1": "14", "2": "13", "3": "15", "4": "3", "5": "22", "6": "9", "7": "18", "8": "1", "9": "24", "10": "3", "11": "27", "12": "31", "13": "18", "14": "1", "15": "7", "16": "15", "17": "7", "18": "26", "19": "22", "20": "0", "21": "1", "22": "27", "23": "26", "24": "30", "25": "27", "26": "93"}</t>
+  </si>
+  <si>
+    <t>{"0": "5", "1": "5", "2": "9", "3": "4", "4": "1", "5": "8", "6": "9", "7": "8", "8": "1", "9": "10", "10": "3", "11": "15", "12": "9", "13": "6", "14": "0", "15": "4", "16": "5", "17": "3", "18": "17", "19": "5", "20": "1", "21": "1", "22": "14", "23": "17", "24": "16", "25": "12", "26": "54"}</t>
+  </si>
+  <si>
+    <t>{"0": "3", "1": "68", "2": "15", "3": "3", "4": "0", "5": "9", "6": "32", "7": "16", "8": "0", "9": "3", "10": "0", "11": "2", "12": "4", "13": "7", "14": "1", "15": "2", "16": "4", "17": "0", "18": "64", "19": "2", "20": "0", "21": "0", "22": "9", "23": "6", "24": "4", "25": "5", "26": "10"}</t>
+  </si>
+  <si>
+    <t>{"0": "26", "1": "59", "2": "11", "3": "20", "4": "1", "5": "11", "6": "11", "7": "27", "8": "3", "9": "18", "10": "4", "11": "17", "12": "15", "13": "16", "14": "0", "15": "9", "16": "19", "17": "7", "18": "21", "19": "8", "20": "3", "21": "0", "22": "15", "23": "29", "24": "27", "25": "27", "26": "95"}</t>
+  </si>
+  <si>
+    <t>{"0": "6", "1": "7", "2": "7", "3": "8", "4": "5", "5": "5", "6": "8", "7": "22", "8": "0", "9": "9", "10": "4", "11": "12", "12": "6", "13": "4", "14": "0", "15": "3", "16": "7", "17": "4", "18": "11", "19": "7", "20": "1", "21": "1", "22": "9", "23": "20", "24": "22", "25": "13", "26": "45"}</t>
+  </si>
+  <si>
+    <t>{"0": "2", "1": "6", "2": "19", "3": "8", "4": "1", "5": "12", "6": "7", "7": "13", "8": "0", "9": "6", "10": "3", "11": "10", "12": "7", "13": "4", "14": "4", "15": "7", "16": "5", "17": "6", "18": "15", "19": "6", "20": "1", "21": "1", "22": "13", "23": "15", "24": "21", "25": "16", "26": "85"}</t>
+  </si>
+  <si>
+    <t>{"0": "9", "1": "11", "2": "10", "3": "12", "4": "3", "5": "9", "6": "5", "7": "21", "8": "2", "9": "12", "10": "11", "11": "27", "12": "10", "13": "13", "14": "1", "15": "5", "16": "12", "17": "5", "18": "18", "19": "12", "20": "0", "21": "3", "22": "13", "23": "17", "24": "18", "25": "14", "26": "34"}</t>
+  </si>
+  <si>
+    <t>{"0": "1", "1": "6", "2": "5", "3": "3", "4": "0", "5": "4", "6": "5", "7": "9", "8": "0", "9": "8", "10": "2", "11": "7", "12": "9", "13": "8", "14": "0", "15": "1", "16": "6", "17": "0", "18": "21", "19": "6", "20": "0", "21": "0", "22": "8", "23": "8", "24": "16", "25": "22", "26": "18"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,11 +185,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,28 +475,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -450,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +625,207 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>190933303</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>498</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>195</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>499</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
+        <v>500</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\PycharmProjects\AD\AppiumProject\qq\send_message_to_qun_member\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
@@ -138,8 +143,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,16 +486,16 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.625" style="1"/>
+    <col min="3" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -508,7 +513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,7 +533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,7 +553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -568,7 +573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,7 +593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,7 +613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,7 +633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,7 +673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,9 +753,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -768,7 +773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -788,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -483,7 +483,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\PycharmProjects\AD\AppiumProject\qq\send_message_to_qun_member\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,13 +133,115 @@
   </si>
   <si>
     <t>{"0": "1", "1": "6", "2": "5", "3": "3", "4": "0", "5": "4", "6": "5", "7": "9", "8": "0", "9": "8", "10": "2", "11": "7", "12": "9", "13": "8", "14": "0", "15": "1", "16": "6", "17": "0", "18": "21", "19": "6", "20": "0", "21": "0", "22": "8", "23": "8", "24": "16", "25": "22", "26": "18"}</t>
+  </si>
+  <si>
+    <t>游戏群</t>
+  </si>
+  <si>
+    <t>永州生姜种植交流</t>
+  </si>
+  <si>
+    <t>体彩十一选五</t>
+  </si>
+  <si>
+    <t>淘宝天猫内部优惠券群</t>
+  </si>
+  <si>
+    <t>贪玩羊页游-武炼巅峰</t>
+  </si>
+  <si>
+    <t>GAME UI创意设计部落</t>
+  </si>
+  <si>
+    <t>咸阳福特车友群</t>
+  </si>
+  <si>
+    <t>{"0":"22", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"12", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "1", "1": "1", "2": "1", "3": "0", "4": "3", "5": "1", "6": "2", "7": "0", "8": "1", "9": "1", "10": "0", "11": "2", "12": "1", "13": "2", "14": "1", "15": "2", "16": "1", "17": "0", "18": "0", "19": "0", "20": "1", "21": "0", "22": "2", "23": "2", "24": "2", "25": "0", "26": "128"}</t>
+  </si>
+  <si>
+    <t>{"0": "13", "1": "18", "2": "3", "3": "3", "4": "6", "5": "3", "6": "1", "7": "17", "8": "0", "9": "15", "10": "8", "11": "2", "12": "12", "13": "19", "14": "0", "15": "6", "16": "12", "17": "7", "18": "8", "19": "2", "20": "0", "21": "0", "22": "1", "23": "1", "24": "5", "25": "5", "26": "79"}</t>
+  </si>
+  <si>
+    <t>{"0": "2", "1": "6", "2": "1", "3": "3", "4": "0", "5": "2", "6": "2", "7": "5", "8": "1", "9": "5", "10": "3", "11": "11", "12": "9", "13": "2", "14": "0", "15": "2", "16": "7", "17": "2", "18": "5", "19": "5", "20": "0", "21": "0", "22": "6", "23": "9", "24": "10", "25": "3", "26": "32"}</t>
+  </si>
+  <si>
+    <t>{"0":"6", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工程机械行业交流</t>
+  </si>
+  <si>
+    <t>value     you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情会场</t>
+  </si>
+  <si>
+    <t>世界杯竞猜</t>
+  </si>
+  <si>
+    <t>全■民■领■福■利</t>
+  </si>
+  <si>
+    <t>股票交流</t>
+  </si>
+  <si>
+    <t>♚荣耀巅峰♚</t>
+  </si>
+  <si>
+    <t>武炼巅峰之崛起</t>
+  </si>
+  <si>
+    <t>{"0": "24", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "13", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "29", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "10", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "56", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "70", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "3", "1": "6", "2": "11", "3": "9", "4": "1", "5": "9", "6": "11", "7": "10", "8": "0", "9": "11", "10": "7", "11": "18", "12": "9", "13": "6", "14": "0", "15": "7", "16": "11", "17": "6", "18": "19", "19": "4", "20": "0", "21": "0", "22": "16", "23": "35", "24": "26", "25": "0", "26": "52"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "27", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "7", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,22 +577,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="1"/>
+    <col min="3" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -513,7 +610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -533,7 +630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,7 +650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,7 +670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,7 +690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +710,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,9 +730,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -653,7 +750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -713,7 +810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,7 +830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -773,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -793,7 +890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -813,7 +910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -831,6 +928,526 @@
       </c>
       <c r="F17" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1">
+        <v>159</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1">
+        <v>247</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1">
+        <v>134</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1">
+        <v>165</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1">
+        <v>70</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1">
+        <v>305</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\PycharmProjects\AD\AppiumProject\qq\send_message_to_qun_member\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +91,6 @@
   </si>
   <si>
     <t>{"0":"8", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"11", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,8 +241,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,14 +288,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,22 +575,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.625" style="1"/>
+    <col min="3" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -607,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -667,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,12 +705,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -724,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,7 +748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -770,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -790,15 +788,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
-        <v>190933303</v>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -810,15 +808,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -830,15 +828,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>30</v>
+        <v>498</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -850,15 +848,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>498</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -870,15 +868,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>195</v>
+        <v>499</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -890,15 +888,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -910,15 +908,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -927,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -938,7 +936,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -950,7 +948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -958,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -970,7 +968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -990,7 +988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -998,7 +996,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1010,7 +1008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="1">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1030,7 +1028,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1047,18 +1045,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C24" s="1">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1067,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1076,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1090,7 +1088,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1110,7 +1108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1130,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="1">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1150,7 +1148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1170,7 +1168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="1">
-        <v>70</v>
+        <v>305</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1190,7 +1188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1198,7 +1196,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="1">
-        <v>305</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1210,243 +1208,223 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\PycharmProjects\AD\AppiumProject\qq\send_message_to_qun_member\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
@@ -241,8 +236,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,17 +573,17 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="1"/>
+    <col min="3" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -608,7 +603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,7 +623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -668,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,7 +683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -708,9 +703,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -728,7 +723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,7 +743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -788,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -808,7 +803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,7 +843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -868,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -908,9 +903,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -928,7 +923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -948,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -968,7 +963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -988,7 +983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.1">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1123,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1208,222 +1203,222 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.1">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="14.1">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="14.1">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="14.1">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" ht="14.1">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" ht="14.1">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" ht="14.1">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" ht="14.1">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" ht="14.1">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" ht="14.1">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" ht="14.1">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" ht="14.1">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="14.1">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" ht="14.1">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" ht="14.1">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" ht="14.1">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" ht="14.1">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="14.1">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="14.1">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="14.1">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="14.1">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\PycharmProjects\AD\AppiumProject\qq\send_message_to_qun_member\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,46 +203,99 @@
     <t>武炼巅峰之崛起</t>
   </si>
   <si>
-    <t>{"0": "24", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "13", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "29", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "10", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "56", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "70", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"0": "3", "1": "6", "2": "11", "3": "9", "4": "1", "5": "9", "6": "11", "7": "10", "8": "0", "9": "11", "10": "7", "11": "18", "12": "9", "13": "6", "14": "0", "15": "7", "16": "11", "17": "6", "18": "19", "19": "4", "20": "0", "21": "0", "22": "16", "23": "35", "24": "26", "25": "0", "26": "52"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"0": "27", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"0": "7", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+  </si>
+  <si>
+    <t>游戏继续中</t>
+  </si>
+  <si>
+    <t>电脑知识交流群</t>
+  </si>
+  <si>
+    <t>敢丨死丨队</t>
+  </si>
+  <si>
+    <t>南京驾驶员交流群</t>
+  </si>
+  <si>
+    <t>武炼巅峰</t>
+  </si>
+  <si>
+    <t>武炼巅峰♂战队群</t>
+  </si>
+  <si>
+    <t>武汉装载机司机交流群</t>
+  </si>
+  <si>
+    <t>都市之大天师刷钱系统</t>
+  </si>
+  <si>
+    <t>电影 聊天  娱乐机器人</t>
+  </si>
+  <si>
+    <t>{"0":"55", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"2", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"11", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "10", "1": "3", "2": "11", "3": "8", "4": "3", "5": "6", "6": "8", "7": "21", "8": "0", "9": "10", "10": "1", "11": "16", "12": "11", "13": "9", "14": "1", "15": "4", "16": "7", "17": "6", "18": "19", "19": "2", "20": "0", "21": "0", "22": "26", "23": "22", "24": "21", "25": "15", "26": "48"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "3", "1": "13", "2": "6", "3": "7", "4": "0", "5": "7", "6": "7", "7": "16", "8": "1", "9": "10", "10": "2", "11": "8", "12": "5", "13": "4", "14": "1", "15": "1", "16": "2", "17": "3", "18": "26", "19": "3", "20": "1", "21": "0", "22": "7", "23": "15", "24": "24", "25": "18", "26": "44"}</t>
+  </si>
+  <si>
+    <t>{"0": "128", "1": "16", "2": "8", "3": "12", "4": "4", "5": "7", "6": "18", "7": "10", "8": "0", "9": "14", "10": "4", "11": "1492", "12": "11", "13": "14", "14": "0", "15": "7", "16": "13", "17": "5", "18": "21", "19": "11", "20": "0", "21": "0", "22": "17", "23": "23", "24": "26", "25": "23", "26": "81"}</t>
+  </si>
+  <si>
+    <t>{"0":"24", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"29", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"10", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"56", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"70", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"42", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"46", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"27", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,18 +630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.625" style="1"/>
+    <col min="3" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -603,7 +661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -643,7 +701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,7 +741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,7 +761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,7 +801,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -763,7 +821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -803,7 +861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -823,7 +881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -863,7 +921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,9 +961,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -923,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -943,7 +1001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -963,7 +1021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -983,7 +1041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1023,7 +1081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1040,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1060,12 +1118,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
@@ -1080,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1100,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1120,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1140,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1160,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,225 +1258,360 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.1">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.1">
-      <c r="A33" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="14.1">
-      <c r="A34" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.1">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.1">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.1">
-      <c r="A37" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.1">
+      <c r="C37" s="1">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="14.1">
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1">
+        <v>296</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="14.1">
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1">
+        <v>241</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="14.1">
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1986</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -24,270 +24,287 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正定网-买卖交易</t>
+  </si>
+  <si>
+    <t>ATX(AutomatorX) old</t>
+  </si>
+  <si>
+    <t>北京化妆师交流群</t>
+  </si>
+  <si>
+    <t>珠三角高级化妆师群</t>
+  </si>
+  <si>
+    <t>重庆软件测试交流群</t>
+  </si>
+  <si>
+    <t>南京软件测试交流群</t>
+  </si>
+  <si>
+    <t>长沙软件测试交流群</t>
+  </si>
+  <si>
+    <t>兄弟汇</t>
+  </si>
+  <si>
+    <t>路遇行人</t>
+  </si>
+  <si>
+    <t>Microsoft问题交流</t>
+  </si>
+  <si>
+    <t>微博热门实时推广精选</t>
+  </si>
+  <si>
+    <t>输了你赢了全世界又如</t>
+  </si>
+  <si>
+    <t>湖南化妆师-新年快乐</t>
+  </si>
+  <si>
+    <t>新娘化妆师交流(一)</t>
+  </si>
+  <si>
+    <t>杭州化妆师交流群</t>
+  </si>
+  <si>
+    <t>山西化妆师交流1群</t>
+  </si>
+  <si>
+    <t>{"0":"28", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"40", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"8", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"13", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"30", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "19", "1": "14", "2": "20", "3": "8", "4": "5", "5": "10", "6": "10", "7": "27", "8": "0", "9": "28", "10": "7", "11": "27", "12": "21", "13": "11", "14": "3", "15": "2", "16": "20", "17": "6", "18": "24", "19": "11", "20": "1", "21": "3", "22": "15", "23": "29", "24": "33", "25": "29", "26": "115"}</t>
+  </si>
+  <si>
+    <t>{"0": "11", "1": "5", "2": "9", "3": "8", "4": "2", "5": "3", "6": "7", "7": "9", "8": "0", "9": "10", "10": "1", "11": "14", "12": "6", "13": "4", "14": "1", "15": "1", "16": "6", "17": "4", "18": "8", "19": "6", "20": "0", "21": "2", "22": "11", "23": "12", "24": "11", "25": "0", "26": "36"}</t>
+  </si>
+  <si>
+    <t>{"0": "17", "1": "13", "2": "15", "3": "15", "4": "1", "5": "11", "6": "11", "7": "60", "8": "3", "9": "23", "10": "9", "11": "19", "12": "18", "13": "18", "14": "3", "15": "5", "16": "17", "17": "5", "18": "22", "19": "14", "20": "1", "21": "1", "22": "27", "23": "29", "24": "41", "25": "21", "26": "78"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "19", "1": "14", "2": "13", "3": "15", "4": "3", "5": "22", "6": "9", "7": "18", "8": "1", "9": "24", "10": "3", "11": "27", "12": "31", "13": "18", "14": "1", "15": "7", "16": "15", "17": "7", "18": "26", "19": "22", "20": "0", "21": "1", "22": "27", "23": "26", "24": "30", "25": "27", "26": "93"}</t>
+  </si>
+  <si>
+    <t>{"0": "5", "1": "5", "2": "9", "3": "4", "4": "1", "5": "8", "6": "9", "7": "8", "8": "1", "9": "10", "10": "3", "11": "15", "12": "9", "13": "6", "14": "0", "15": "4", "16": "5", "17": "3", "18": "17", "19": "5", "20": "1", "21": "1", "22": "14", "23": "17", "24": "16", "25": "12", "26": "54"}</t>
+  </si>
+  <si>
+    <t>{"0": "3", "1": "68", "2": "15", "3": "3", "4": "0", "5": "9", "6": "32", "7": "16", "8": "0", "9": "3", "10": "0", "11": "2", "12": "4", "13": "7", "14": "1", "15": "2", "16": "4", "17": "0", "18": "64", "19": "2", "20": "0", "21": "0", "22": "9", "23": "6", "24": "4", "25": "5", "26": "10"}</t>
+  </si>
+  <si>
+    <t>{"0": "26", "1": "59", "2": "11", "3": "20", "4": "1", "5": "11", "6": "11", "7": "27", "8": "3", "9": "18", "10": "4", "11": "17", "12": "15", "13": "16", "14": "0", "15": "9", "16": "19", "17": "7", "18": "21", "19": "8", "20": "3", "21": "0", "22": "15", "23": "29", "24": "27", "25": "27", "26": "95"}</t>
+  </si>
+  <si>
+    <t>{"0": "6", "1": "7", "2": "7", "3": "8", "4": "5", "5": "5", "6": "8", "7": "22", "8": "0", "9": "9", "10": "4", "11": "12", "12": "6", "13": "4", "14": "0", "15": "3", "16": "7", "17": "4", "18": "11", "19": "7", "20": "1", "21": "1", "22": "9", "23": "20", "24": "22", "25": "13", "26": "45"}</t>
+  </si>
+  <si>
+    <t>{"0": "2", "1": "6", "2": "19", "3": "8", "4": "1", "5": "12", "6": "7", "7": "13", "8": "0", "9": "6", "10": "3", "11": "10", "12": "7", "13": "4", "14": "4", "15": "7", "16": "5", "17": "6", "18": "15", "19": "6", "20": "1", "21": "1", "22": "13", "23": "15", "24": "21", "25": "16", "26": "85"}</t>
+  </si>
+  <si>
+    <t>{"0": "9", "1": "11", "2": "10", "3": "12", "4": "3", "5": "9", "6": "5", "7": "21", "8": "2", "9": "12", "10": "11", "11": "27", "12": "10", "13": "13", "14": "1", "15": "5", "16": "12", "17": "5", "18": "18", "19": "12", "20": "0", "21": "3", "22": "13", "23": "17", "24": "18", "25": "14", "26": "34"}</t>
+  </si>
+  <si>
+    <t>{"0": "1", "1": "6", "2": "5", "3": "3", "4": "0", "5": "4", "6": "5", "7": "9", "8": "0", "9": "8", "10": "2", "11": "7", "12": "9", "13": "8", "14": "0", "15": "1", "16": "6", "17": "0", "18": "21", "19": "6", "20": "0", "21": "0", "22": "8", "23": "8", "24": "16", "25": "22", "26": "18"}</t>
+  </si>
+  <si>
+    <t>游戏群</t>
+  </si>
+  <si>
+    <t>永州生姜种植交流</t>
+  </si>
+  <si>
+    <t>体彩十一选五</t>
+  </si>
+  <si>
+    <t>淘宝天猫内部优惠券群</t>
+  </si>
+  <si>
+    <t>贪玩羊页游-武炼巅峰</t>
+  </si>
+  <si>
+    <t>GAME UI创意设计部落</t>
+  </si>
+  <si>
+    <t>咸阳福特车友群</t>
+  </si>
+  <si>
+    <t>{"0":"22", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"12", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "1", "1": "1", "2": "1", "3": "0", "4": "3", "5": "1", "6": "2", "7": "0", "8": "1", "9": "1", "10": "0", "11": "2", "12": "1", "13": "2", "14": "1", "15": "2", "16": "1", "17": "0", "18": "0", "19": "0", "20": "1", "21": "0", "22": "2", "23": "2", "24": "2", "25": "0", "26": "128"}</t>
+  </si>
+  <si>
+    <t>{"0": "13", "1": "18", "2": "3", "3": "3", "4": "6", "5": "3", "6": "1", "7": "17", "8": "0", "9": "15", "10": "8", "11": "2", "12": "12", "13": "19", "14": "0", "15": "6", "16": "12", "17": "7", "18": "8", "19": "2", "20": "0", "21": "0", "22": "1", "23": "1", "24": "5", "25": "5", "26": "79"}</t>
+  </si>
+  <si>
+    <t>{"0": "2", "1": "6", "2": "1", "3": "3", "4": "0", "5": "2", "6": "2", "7": "5", "8": "1", "9": "5", "10": "3", "11": "11", "12": "9", "13": "2", "14": "0", "15": "2", "16": "7", "17": "2", "18": "5", "19": "5", "20": "0", "21": "0", "22": "6", "23": "9", "24": "10", "25": "3", "26": "32"}</t>
+  </si>
+  <si>
+    <t>{"0":"6", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工程机械行业交流</t>
+  </si>
+  <si>
+    <t>value     you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情会场</t>
+  </si>
+  <si>
+    <t>世界杯竞猜</t>
+  </si>
+  <si>
+    <t>全■民■领■福■利</t>
+  </si>
+  <si>
+    <t>股票交流</t>
+  </si>
+  <si>
+    <t>♚荣耀巅峰♚</t>
+  </si>
+  <si>
+    <t>武炼巅峰之崛起</t>
+  </si>
+  <si>
+    <t>{"0": "3", "1": "6", "2": "11", "3": "9", "4": "1", "5": "9", "6": "11", "7": "10", "8": "0", "9": "11", "10": "7", "11": "18", "12": "9", "13": "6", "14": "0", "15": "7", "16": "11", "17": "6", "18": "19", "19": "4", "20": "0", "21": "0", "22": "16", "23": "35", "24": "26", "25": "0", "26": "52"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "7", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
+  </si>
+  <si>
+    <t>游戏继续中</t>
+  </si>
+  <si>
+    <t>电脑知识交流群</t>
+  </si>
+  <si>
+    <t>敢丨死丨队</t>
+  </si>
+  <si>
+    <t>南京驾驶员交流群</t>
+  </si>
+  <si>
+    <t>武炼巅峰</t>
+  </si>
+  <si>
+    <t>武炼巅峰♂战队群</t>
+  </si>
+  <si>
+    <t>武汉装载机司机交流群</t>
+  </si>
+  <si>
+    <t>都市之大天师刷钱系统</t>
+  </si>
+  <si>
+    <t>电影 聊天  娱乐机器人</t>
+  </si>
+  <si>
+    <t>{"0":"55", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"2", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"11", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "10", "1": "3", "2": "11", "3": "8", "4": "3", "5": "6", "6": "8", "7": "21", "8": "0", "9": "10", "10": "1", "11": "16", "12": "11", "13": "9", "14": "1", "15": "4", "16": "7", "17": "6", "18": "19", "19": "2", "20": "0", "21": "0", "22": "26", "23": "22", "24": "21", "25": "15", "26": "48"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0": "3", "1": "13", "2": "6", "3": "7", "4": "0", "5": "7", "6": "7", "7": "16", "8": "1", "9": "10", "10": "2", "11": "8", "12": "5", "13": "4", "14": "1", "15": "1", "16": "2", "17": "3", "18": "26", "19": "3", "20": "1", "21": "0", "22": "7", "23": "15", "24": "24", "25": "18", "26": "44"}</t>
+  </si>
+  <si>
+    <t>{"0": "128", "1": "16", "2": "8", "3": "12", "4": "4", "5": "7", "6": "18", "7": "10", "8": "0", "9": "14", "10": "4", "11": "1492", "12": "11", "13": "14", "14": "0", "15": "7", "16": "13", "17": "5", "18": "21", "19": "11", "20": "0", "21": "0", "22": "17", "23": "23", "24": "26", "25": "23", "26": "81"}</t>
+  </si>
+  <si>
+    <t>{"0":"24", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"29", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"10", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"56", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"70", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"42", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"46", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"27", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙游天下*清风轩</t>
+  </si>
+  <si>
+    <t>回忆那些年得青春</t>
+  </si>
+  <si>
+    <t>河南一区，醉眼迷红妆</t>
+  </si>
+  <si>
+    <t>{"0":"69", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"26", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正定网-买卖交易</t>
-  </si>
-  <si>
-    <t>ATX(AutomatorX) old</t>
-  </si>
-  <si>
-    <t>北京化妆师交流群</t>
-  </si>
-  <si>
-    <t>珠三角高级化妆师群</t>
-  </si>
-  <si>
-    <t>重庆软件测试交流群</t>
-  </si>
-  <si>
-    <t>南京软件测试交流群</t>
-  </si>
-  <si>
-    <t>长沙软件测试交流群</t>
-  </si>
-  <si>
-    <t>兄弟汇</t>
-  </si>
-  <si>
-    <t>路遇行人</t>
-  </si>
-  <si>
-    <t>Microsoft问题交流</t>
-  </si>
-  <si>
-    <t>微博热门实时推广精选</t>
-  </si>
-  <si>
-    <t>输了你赢了全世界又如</t>
-  </si>
-  <si>
-    <t>湖南化妆师-新年快乐</t>
-  </si>
-  <si>
-    <t>新娘化妆师交流(一)</t>
-  </si>
-  <si>
-    <t>杭州化妆师交流群</t>
-  </si>
-  <si>
-    <t>山西化妆师交流1群</t>
-  </si>
-  <si>
-    <t>{"0":"28", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"40", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"8", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"13", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"30", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "19", "1": "14", "2": "20", "3": "8", "4": "5", "5": "10", "6": "10", "7": "27", "8": "0", "9": "28", "10": "7", "11": "27", "12": "21", "13": "11", "14": "3", "15": "2", "16": "20", "17": "6", "18": "24", "19": "11", "20": "1", "21": "3", "22": "15", "23": "29", "24": "33", "25": "29", "26": "115"}</t>
-  </si>
-  <si>
-    <t>{"0": "11", "1": "5", "2": "9", "3": "8", "4": "2", "5": "3", "6": "7", "7": "9", "8": "0", "9": "10", "10": "1", "11": "14", "12": "6", "13": "4", "14": "1", "15": "1", "16": "6", "17": "4", "18": "8", "19": "6", "20": "0", "21": "2", "22": "11", "23": "12", "24": "11", "25": "0", "26": "36"}</t>
-  </si>
-  <si>
-    <t>{"0": "17", "1": "13", "2": "15", "3": "15", "4": "1", "5": "11", "6": "11", "7": "60", "8": "3", "9": "23", "10": "9", "11": "19", "12": "18", "13": "18", "14": "3", "15": "5", "16": "17", "17": "5", "18": "22", "19": "14", "20": "1", "21": "1", "22": "27", "23": "29", "24": "41", "25": "21", "26": "78"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "19", "1": "14", "2": "13", "3": "15", "4": "3", "5": "22", "6": "9", "7": "18", "8": "1", "9": "24", "10": "3", "11": "27", "12": "31", "13": "18", "14": "1", "15": "7", "16": "15", "17": "7", "18": "26", "19": "22", "20": "0", "21": "1", "22": "27", "23": "26", "24": "30", "25": "27", "26": "93"}</t>
-  </si>
-  <si>
-    <t>{"0": "5", "1": "5", "2": "9", "3": "4", "4": "1", "5": "8", "6": "9", "7": "8", "8": "1", "9": "10", "10": "3", "11": "15", "12": "9", "13": "6", "14": "0", "15": "4", "16": "5", "17": "3", "18": "17", "19": "5", "20": "1", "21": "1", "22": "14", "23": "17", "24": "16", "25": "12", "26": "54"}</t>
-  </si>
-  <si>
-    <t>{"0": "3", "1": "68", "2": "15", "3": "3", "4": "0", "5": "9", "6": "32", "7": "16", "8": "0", "9": "3", "10": "0", "11": "2", "12": "4", "13": "7", "14": "1", "15": "2", "16": "4", "17": "0", "18": "64", "19": "2", "20": "0", "21": "0", "22": "9", "23": "6", "24": "4", "25": "5", "26": "10"}</t>
-  </si>
-  <si>
-    <t>{"0": "26", "1": "59", "2": "11", "3": "20", "4": "1", "5": "11", "6": "11", "7": "27", "8": "3", "9": "18", "10": "4", "11": "17", "12": "15", "13": "16", "14": "0", "15": "9", "16": "19", "17": "7", "18": "21", "19": "8", "20": "3", "21": "0", "22": "15", "23": "29", "24": "27", "25": "27", "26": "95"}</t>
-  </si>
-  <si>
-    <t>{"0": "6", "1": "7", "2": "7", "3": "8", "4": "5", "5": "5", "6": "8", "7": "22", "8": "0", "9": "9", "10": "4", "11": "12", "12": "6", "13": "4", "14": "0", "15": "3", "16": "7", "17": "4", "18": "11", "19": "7", "20": "1", "21": "1", "22": "9", "23": "20", "24": "22", "25": "13", "26": "45"}</t>
-  </si>
-  <si>
-    <t>{"0": "2", "1": "6", "2": "19", "3": "8", "4": "1", "5": "12", "6": "7", "7": "13", "8": "0", "9": "6", "10": "3", "11": "10", "12": "7", "13": "4", "14": "4", "15": "7", "16": "5", "17": "6", "18": "15", "19": "6", "20": "1", "21": "1", "22": "13", "23": "15", "24": "21", "25": "16", "26": "85"}</t>
-  </si>
-  <si>
-    <t>{"0": "9", "1": "11", "2": "10", "3": "12", "4": "3", "5": "9", "6": "5", "7": "21", "8": "2", "9": "12", "10": "11", "11": "27", "12": "10", "13": "13", "14": "1", "15": "5", "16": "12", "17": "5", "18": "18", "19": "12", "20": "0", "21": "3", "22": "13", "23": "17", "24": "18", "25": "14", "26": "34"}</t>
-  </si>
-  <si>
-    <t>{"0": "1", "1": "6", "2": "5", "3": "3", "4": "0", "5": "4", "6": "5", "7": "9", "8": "0", "9": "8", "10": "2", "11": "7", "12": "9", "13": "8", "14": "0", "15": "1", "16": "6", "17": "0", "18": "21", "19": "6", "20": "0", "21": "0", "22": "8", "23": "8", "24": "16", "25": "22", "26": "18"}</t>
-  </si>
-  <si>
-    <t>游戏群</t>
-  </si>
-  <si>
-    <t>永州生姜种植交流</t>
-  </si>
-  <si>
-    <t>体彩十一选五</t>
-  </si>
-  <si>
-    <t>淘宝天猫内部优惠券群</t>
-  </si>
-  <si>
-    <t>贪玩羊页游-武炼巅峰</t>
-  </si>
-  <si>
-    <t>GAME UI创意设计部落</t>
-  </si>
-  <si>
-    <t>咸阳福特车友群</t>
-  </si>
-  <si>
-    <t>{"0":"22", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"12", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "1", "1": "1", "2": "1", "3": "0", "4": "3", "5": "1", "6": "2", "7": "0", "8": "1", "9": "1", "10": "0", "11": "2", "12": "1", "13": "2", "14": "1", "15": "2", "16": "1", "17": "0", "18": "0", "19": "0", "20": "1", "21": "0", "22": "2", "23": "2", "24": "2", "25": "0", "26": "128"}</t>
-  </si>
-  <si>
-    <t>{"0": "13", "1": "18", "2": "3", "3": "3", "4": "6", "5": "3", "6": "1", "7": "17", "8": "0", "9": "15", "10": "8", "11": "2", "12": "12", "13": "19", "14": "0", "15": "6", "16": "12", "17": "7", "18": "8", "19": "2", "20": "0", "21": "0", "22": "1", "23": "1", "24": "5", "25": "5", "26": "79"}</t>
-  </si>
-  <si>
-    <t>{"0": "2", "1": "6", "2": "1", "3": "3", "4": "0", "5": "2", "6": "2", "7": "5", "8": "1", "9": "5", "10": "3", "11": "11", "12": "9", "13": "2", "14": "0", "15": "2", "16": "7", "17": "2", "18": "5", "19": "5", "20": "0", "21": "0", "22": "6", "23": "9", "24": "10", "25": "3", "26": "32"}</t>
-  </si>
-  <si>
-    <t>{"0":"6", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑工程机械行业交流</t>
-  </si>
-  <si>
-    <t>value     you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友情会场</t>
-  </si>
-  <si>
-    <t>世界杯竞猜</t>
-  </si>
-  <si>
-    <t>全■民■领■福■利</t>
-  </si>
-  <si>
-    <t>股票交流</t>
-  </si>
-  <si>
-    <t>♚荣耀巅峰♚</t>
-  </si>
-  <si>
-    <t>武炼巅峰之崛起</t>
-  </si>
-  <si>
-    <t>{"0": "3", "1": "6", "2": "11", "3": "9", "4": "1", "5": "9", "6": "11", "7": "10", "8": "0", "9": "11", "10": "7", "11": "18", "12": "9", "13": "6", "14": "0", "15": "7", "16": "11", "17": "6", "18": "19", "19": "4", "20": "0", "21": "0", "22": "16", "23": "35", "24": "26", "25": "0", "26": "52"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "7", "1": "3", "2": "8", "3": "1", "4": "2", "5": "6", "6": "2", "7": "7", "8": "1", "9": "5", "10": "3", "11": "8", "12": "6", "13": "2", "14": "0", "15": "2", "16": "3", "17": "3", "18": "13", "19": "8", "20": "0", "21": "1", "22": "9", "23": "7", "24": "9", "25": "8", "26": "38"}</t>
-  </si>
-  <si>
-    <t>游戏继续中</t>
-  </si>
-  <si>
-    <t>电脑知识交流群</t>
-  </si>
-  <si>
-    <t>敢丨死丨队</t>
-  </si>
-  <si>
-    <t>南京驾驶员交流群</t>
-  </si>
-  <si>
-    <t>武炼巅峰</t>
-  </si>
-  <si>
-    <t>武炼巅峰♂战队群</t>
-  </si>
-  <si>
-    <t>武汉装载机司机交流群</t>
-  </si>
-  <si>
-    <t>都市之大天师刷钱系统</t>
-  </si>
-  <si>
-    <t>电影 聊天  娱乐机器人</t>
-  </si>
-  <si>
-    <t>{"0":"55", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"2", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"11", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "10", "1": "3", "2": "11", "3": "8", "4": "3", "5": "6", "6": "8", "7": "21", "8": "0", "9": "10", "10": "1", "11": "16", "12": "11", "13": "9", "14": "1", "15": "4", "16": "7", "17": "6", "18": "19", "19": "2", "20": "0", "21": "0", "22": "26", "23": "22", "24": "21", "25": "15", "26": "48"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0": "3", "1": "13", "2": "6", "3": "7", "4": "0", "5": "7", "6": "7", "7": "16", "8": "1", "9": "10", "10": "2", "11": "8", "12": "5", "13": "4", "14": "1", "15": "1", "16": "2", "17": "3", "18": "26", "19": "3", "20": "1", "21": "0", "22": "7", "23": "15", "24": "24", "25": "18", "26": "44"}</t>
-  </si>
-  <si>
-    <t>{"0": "128", "1": "16", "2": "8", "3": "12", "4": "4", "5": "7", "6": "18", "7": "10", "8": "0", "9": "14", "10": "4", "11": "1492", "12": "11", "13": "14", "14": "0", "15": "7", "16": "13", "17": "5", "18": "21", "19": "11", "20": "0", "21": "0", "22": "17", "23": "23", "24": "26", "25": "23", "26": "81"}</t>
-  </si>
-  <si>
-    <t>{"0":"24", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"29", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"10", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"56", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"70", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"42", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"46", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"0":"27", "1":"0", "2":"0", "3":"0", "4":"0", "5":"0", "6":"0", "7":"0", "8":"0", "9":"0", "10":"0","11":"0", "12":"0", "13":"0", "14":"0", "15":"0", "16":"0","17":"0", "18":"0", "19":"0", "20":"0", "21":"0", "22":"0", "23":"0", "24":"0", "25":"0", "26":"0"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -643,10 +660,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="1">
         <v>244</v>
@@ -658,15 +675,15 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>270</v>
@@ -678,15 +695,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>500</v>
@@ -698,15 +715,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>247</v>
@@ -718,15 +735,15 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>295</v>
@@ -738,15 +755,15 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>310</v>
@@ -758,15 +775,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>175</v>
@@ -778,15 +795,15 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>28</v>
@@ -798,18 +815,18 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -818,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="1">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
-        <v>8</v>
-      </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
@@ -838,18 +855,18 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -858,18 +875,18 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -878,18 +895,18 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>498</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -898,18 +915,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -918,18 +935,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>499</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -938,18 +955,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -958,18 +975,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -978,18 +995,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
+        <v>499</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -998,18 +1015,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1018,18 +1035,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1038,18 +1055,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1058,18 +1075,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1078,18 +1095,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1098,18 +1115,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1118,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,10 +1143,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1138,18 +1155,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1158,18 +1175,18 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -1178,18 +1195,18 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -1198,18 +1215,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -1218,18 +1235,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
-        <v>305</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -1238,18 +1255,18 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -1258,18 +1275,18 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1278,18 +1295,18 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1">
-        <v>55</v>
+        <v>305</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1298,18 +1315,18 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C34" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1318,18 +1335,18 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1338,18 +1355,18 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1358,18 +1375,18 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1378,18 +1395,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1398,18 +1415,18 @@
         <v>0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C39" s="1">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1418,18 +1435,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1">
-        <v>1986</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -1438,182 +1455,242 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1">
+        <v>296</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1">
+        <v>241</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1986</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -647,9 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -660,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -820,7 +818,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>79</v>

--- a/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
+++ b/AppiumProject/qq/send_message_to_qun_member/data备份.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhengsuishan\PycharmProjects\AD\AppiumProject\qq\send_message_to_qun_member\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="9" r:id="rId1"/>
@@ -311,8 +306,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,7 +632,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,16 +644,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.58203125" style="1"/>
+    <col min="3" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -676,7 +671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,7 +871,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,9 +1031,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -1056,7 +1051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.1">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,177 +1511,177 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.1">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.1">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.1">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.1">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.1">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" ht="14.1">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" ht="14.1">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" ht="14.1">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" ht="14.1">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
